--- a/1-python-in-excel-first-steps/python-excel-first-steps-solution.xlsx
+++ b/1-python-in-excel-first-steps/python-excel-first-steps-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27204"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\1-python-in-excel-first-steps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel\1-python-in-excel-first-steps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399876D7-79FB-4833-8EBF-A21BF5220C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7896E653-199D-4B50-B0F3-9D1FCD47D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{2E41FF59-E030-4D3D-BD6E-1467FE591C9D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{2E41FF59-E030-4D3D-BD6E-1467FE591C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="hello-world" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0079F4FB-E19A-40B4-8138-462AEEFA02CD}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
